--- a/Redmi Note 10S all features.xlsx
+++ b/Redmi Note 10S all features.xlsx
@@ -1,34 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Every Thing!\AA Each topic Practices\FlipkartScraping\Showcase.git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11196" windowHeight="3636"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="All specs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All specs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Handset</t>
+  </si>
+  <si>
+    <t>Handset Category</t>
+  </si>
+  <si>
+    <t>Color Name</t>
+  </si>
+  <si>
+    <t>Handset Ratings</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Discounted Price</t>
+  </si>
+  <si>
+    <t>Discount% on MRP</t>
+  </si>
+  <si>
+    <t>Exchange offer upto</t>
+  </si>
+  <si>
+    <t>RAM(GB)</t>
+  </si>
+  <si>
+    <t>Internal Storage(GB)</t>
+  </si>
+  <si>
+    <t>Expandable Storage upto(GB)</t>
+  </si>
+  <si>
+    <t>Display Size in cm</t>
+  </si>
+  <si>
+    <t>Display Size in inch</t>
+  </si>
+  <si>
+    <t>Primary Camera</t>
+  </si>
+  <si>
+    <t>Secondary Camera</t>
+  </si>
+  <si>
+    <t>Additional Camera1</t>
+  </si>
+  <si>
+    <t>Additional Camera2</t>
+  </si>
+  <si>
+    <t>Front Camera</t>
+  </si>
+  <si>
+    <t>Battery Capacity(mAH)</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Warranty on handset</t>
+  </si>
+  <si>
+    <t>Warranty on accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDMI Note 10S </t>
+  </si>
+  <si>
+    <t>Android Phone</t>
+  </si>
+  <si>
+    <t>Deep Sea Blue</t>
+  </si>
+  <si>
+    <t>23% off</t>
+  </si>
+  <si>
+    <t>Mediatek Helio G95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Year Manufacturer Warranty for Phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 Months Warranty for In the Box Accessories</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +142,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,211 +444,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Handset</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Handset Category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Color Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Handset Ratings</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>MRP</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Discounted Price</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Discount% on MRP</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Exchange offer upto</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>RAM(GB)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Internal Storage(GB)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Expandable Storage upto(GB)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Display Size in cm</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Display Size in inch</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Primary Camera</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Secondary Camera</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Additional Camera1</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Additional Camera2</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Front Camera</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Battery Capacity(mAH)</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Processor</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Warranty on handset</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Warranty on accessories</t>
-        </is>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REDMI Note 10S </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Android Phone</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Deep Sea Blue</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E2">
         <v>16999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>12999</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>23% off</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>12000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>64</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>512</v>
       </c>
-      <c r="L2" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="M2">
         <v>6.43</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>64</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>13</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>5000</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Mediatek Helio G95</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 Year Manufacturer Warranty for Phone </t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Months Warranty for In the Box Accessories</t>
-        </is>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
